--- a/assets/modules/predation-assay/marinegeo_spreadsheet_predation_assay.xlsx
+++ b/assets/modules/predation-assay/marinegeo_spreadsheet_predation_assay.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\marinegeo_resources\protocols\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB53A9-3A38-4511-BD7D-99997404BF55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A9790-1E2E-4A80-85E9-75324F5B5D5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>The date the sample was deployed in the field</t>
   </si>
   <si>
-    <t>v0.4.0</t>
-  </si>
-  <si>
     <t>data_entry_day</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>The time the sample was deployed in the field in 24-hour format (local time)</t>
+  </si>
+  <si>
+    <t>v0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="161.1" customHeight="1">
       <c r="B1" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1182,19 +1182,19 @@
     </row>
     <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="9"/>
     </row>
@@ -1215,7 +1215,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1334,19 +1334,19 @@
         <v>71</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>42</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1720,7 +1720,7 @@
         <v>65</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2094,16 +2094,16 @@
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -2112,16 +2112,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -2130,16 +2130,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -2368,16 +2368,16 @@
         <v>53</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -2404,10 +2404,10 @@
         <v>53</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
@@ -2423,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>15</v>
@@ -2436,10 +2436,10 @@
         <v>53</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
@@ -2638,10 +2638,10 @@
         <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>15</v>
